--- a/Отчеты/2Д91/scores_2d91.xlsx
+++ b/Отчеты/2Д91/scores_2d91.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BBA37A-E0F9-4C44-BD8C-708590BDA398}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE635BEB-63DF-42B4-B046-1729B59DD1A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="33">
   <si>
     <t>Бадмацыренов Данзан Доржиевич</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>№</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,18 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -468,7 +482,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD26"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,6 +580,24 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -586,6 +618,27 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -624,6 +677,18 @@
       <c r="L6" t="s">
         <v>24</v>
       </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -679,6 +744,21 @@
       <c r="L8" t="s">
         <v>24</v>
       </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -708,6 +788,18 @@
       <c r="K9" t="s">
         <v>24</v>
       </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -749,6 +841,18 @@
       <c r="M10" t="s">
         <v>24</v>
       </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -787,6 +891,24 @@
       <c r="L11" t="s">
         <v>24</v>
       </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -828,8 +950,23 @@
       <c r="M12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -837,11 +974,11 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <f>IF(C3="+",5,0)</f>
+        <f>_xlfn.IFS(C3="+",5,C3="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:R16" si="0">IF(D3="+",5,0)</f>
+        <f t="shared" ref="D16:R16" si="0">_xlfn.IFS(D3="+",5,D3="*",3,TRUE,0)</f>
         <v>0</v>
       </c>
       <c r="E16">
@@ -901,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -909,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:R25" si="1">IF(C4="+",5,0)</f>
+        <f t="shared" ref="C17:R17" si="1">_xlfn.IFS(C4="+",5,C4="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D17">
@@ -930,23 +1067,23 @@
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
@@ -954,7 +1091,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
@@ -973,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -981,71 +1118,71 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C18:R18" si="2">_xlfn.IFS(C5="+",5,C5="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1053,71 +1190,71 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C19:R19" si="3">_xlfn.IFS(C6="+",5,C6="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -1125,71 +1262,71 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C20:R20" si="4">_xlfn.IFS(C7="+",5,C7="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1197,71 +1334,71 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C21:R21" si="5">_xlfn.IFS(C8="+",5,C8="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -1269,71 +1406,71 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C22:R22" si="6">_xlfn.IFS(C9="+",5,C9="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="R22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -1341,71 +1478,71 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C23:R23" si="7">_xlfn.IFS(C10="+",5,C10="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="M23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -1413,71 +1550,71 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C24:R24" si="8">_xlfn.IFS(C11="+",5,C11="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="M24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="P24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="R24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -1485,68 +1622,68 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C25:R25" si="9">_xlfn.IFS(C12="+",5,C12="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="R25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -1594,16 +1731,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ref="C29:C37" si="2">SUM(C17:J17)</f>
-        <v>25</v>
+        <f t="shared" ref="C29:C37" si="10">SUM(C17:J17)</f>
+        <v>40</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ref="D29:D37" si="3">SUM(K17:R17)</f>
-        <v>0</v>
+        <f t="shared" ref="D29:D37" si="11">SUM(K17:R17)</f>
+        <v>13</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ref="E29:E37" si="4">SUM(C29:D29)</f>
-        <v>25</v>
+        <f t="shared" ref="E29:E37" si="12">SUM(C29:D29)</f>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -1614,16 +1751,16 @@
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="10"/>
+        <v>29</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="12"/>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -1634,16 +1771,16 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>30</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="12"/>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -1654,15 +1791,15 @@
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
     </row>
@@ -1674,16 +1811,16 @@
         <v>5</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>35</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="12"/>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1694,16 +1831,16 @@
         <v>6</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>25</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f t="shared" si="12"/>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1714,16 +1851,16 @@
         <v>7</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>35</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="4"/>
-        <v>55</v>
+        <f t="shared" si="12"/>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1734,16 +1871,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>36</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="12"/>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1754,19 +1891,24 @@
         <v>9</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>40</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="4"/>
-        <v>55</v>
+        <f t="shared" si="12"/>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E28:E37">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>55</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Отчеты/2Д91/scores_2d91.xlsx
+++ b/Отчеты/2Д91/scores_2d91.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE635BEB-63DF-42B4-B046-1729B59DD1A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E65328-01E7-4BBD-8F6C-0A0243CF6F8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="33">
   <si>
     <t>Бадмацыренов Данзан Доржиевич</t>
   </si>
@@ -482,7 +482,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,8 +595,20 @@
       <c r="L4" t="s">
         <v>24</v>
       </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
       <c r="N4" t="s">
         <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -689,6 +701,9 @@
       <c r="P6" t="s">
         <v>24</v>
       </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -791,6 +806,9 @@
       <c r="L9" t="s">
         <v>24</v>
       </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
       <c r="O9" t="s">
         <v>24</v>
       </c>
@@ -850,6 +868,9 @@
       <c r="P10" t="s">
         <v>24</v>
       </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
       <c r="R10" t="s">
         <v>24</v>
       </c>
@@ -1087,7 +1108,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
@@ -1095,15 +1116,15 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <f t="shared" si="1"/>
@@ -1247,7 +1268,7 @@
       </c>
       <c r="Q19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <f t="shared" si="3"/>
@@ -1447,7 +1468,7 @@
       </c>
       <c r="M22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N22">
         <f t="shared" si="6"/>
@@ -1535,7 +1556,7 @@
       </c>
       <c r="Q23">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R23">
         <f t="shared" si="7"/>
@@ -1736,11 +1757,11 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" ref="D29:D37" si="11">SUM(K17:R17)</f>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" ref="E29:E37" si="12">SUM(C29:D29)</f>
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -1776,11 +1797,11 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="12"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -1836,11 +1857,11 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="12"/>
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1856,11 +1877,11 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="11"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="12"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">

--- a/Отчеты/2Д91/scores_2d91.xlsx
+++ b/Отчеты/2Д91/scores_2d91.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E65328-01E7-4BBD-8F6C-0A0243CF6F8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50812FF-79EA-4EBC-8D7F-122364A22659}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="540" windowWidth="11640" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,6 +1723,12 @@
       <c r="E27" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F27">
+        <v>80</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1743,6 +1749,14 @@
         <f>SUM(C28:D28)</f>
         <v>15</v>
       </c>
+      <c r="F28">
+        <f>CEILING(E28*$G$27/$F$27,1)</f>
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <f>F28-E28</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1763,6 +1777,14 @@
         <f t="shared" ref="E29:E37" si="12">SUM(C29:D29)</f>
         <v>71</v>
       </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F37" si="13">CEILING(E29*$G$27/$F$27,1)</f>
+        <v>89</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G37" si="14">F29-E29</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1783,6 +1805,14 @@
         <f t="shared" si="12"/>
         <v>41</v>
       </c>
+      <c r="F30">
+        <f t="shared" si="13"/>
+        <v>52</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1803,6 +1833,14 @@
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
+      <c r="F31">
+        <f t="shared" si="13"/>
+        <v>94</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1823,8 +1861,16 @@
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>10</v>
       </c>
@@ -1843,8 +1889,16 @@
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="13"/>
+        <v>94</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>13</v>
       </c>
@@ -1863,8 +1917,16 @@
         <f t="shared" si="12"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>14</v>
       </c>
@@ -1883,8 +1945,16 @@
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>15</v>
       </c>
@@ -1903,8 +1973,16 @@
         <f t="shared" si="12"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="13"/>
+        <v>95</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>19</v>
       </c>
@@ -1922,6 +2000,14 @@
       <c r="E37" s="1">
         <f t="shared" si="12"/>
         <v>80</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
